--- a/public/user.xlsx
+++ b/public/user.xlsx
@@ -80,11 +80,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -115,6 +116,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -123,6 +200,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -130,133 +258,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -273,12 +274,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -291,169 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,11 +498,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,26 +542,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,24 +563,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,122 +600,122 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,19 +724,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -745,7 +746,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -753,6 +754,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1093,7 +1097,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1125,7 +1129,7 @@
       <c r="B2" s="2">
         <v>12345</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1136,7 +1140,7 @@
       <c r="B3" s="2">
         <v>12346</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1147,7 +1151,7 @@
       <c r="B4" s="2">
         <v>12347</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1158,140 +1162,140 @@
       <c r="B5" s="2">
         <v>12348</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="16.4" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>12349</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" ht="16.4" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>12350</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="7"/>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" ht="16.4" spans="1:3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>12351</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" ht="16.4" spans="1:3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2">
         <v>12352</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" ht="16.4" spans="1:3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2">
         <v>12353</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" ht="16.4" spans="1:3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>12354</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" ht="16.4" spans="1:3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2">
         <v>12355</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" ht="16.4" spans="1:3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2">
         <v>12356</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" ht="16.4" spans="1:3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>12357</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" ht="16.4" spans="1:3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="2">
         <v>12358</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" ht="16.4" spans="1:3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="2">
         <v>12359</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" ht="16.4" spans="1:3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="2">
         <v>12360</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/public/user.xlsx
+++ b/public/user.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="20">
   <si>
     <t>fullName</t>
   </si>
@@ -81,11 +81,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -131,18 +131,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,19 +162,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,29 +186,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="204"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,6 +210,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,21 +231,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,11 +252,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -280,61 +280,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,115 +448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,15 +522,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -561,6 +552,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -575,23 +590,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,140 +600,140 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1094,10 +1094,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C17"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1299,6 +1299,930 @@
         <v>4</v>
       </c>
     </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2">
+        <v>12361</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>12362</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2">
+        <v>12363</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2">
+        <v>12364</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" ht="16.4" spans="1:3">
+      <c r="A22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2">
+        <v>12365</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" ht="16.4" spans="1:3">
+      <c r="A23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="2">
+        <v>12366</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" ht="16.4" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2">
+        <v>12367</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" ht="16.4" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="2">
+        <v>12368</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" ht="16.4" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="2">
+        <v>12369</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" ht="16.4" spans="1:3">
+      <c r="A27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="2">
+        <v>12370</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" ht="16.4" spans="1:3">
+      <c r="A28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="2">
+        <v>12371</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" ht="16.4" spans="1:3">
+      <c r="A29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="2">
+        <v>12372</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" ht="16.4" spans="1:3">
+      <c r="A30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="2">
+        <v>12373</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" ht="16.4" spans="1:3">
+      <c r="A31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2">
+        <v>12374</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" ht="16.4" spans="1:3">
+      <c r="A32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="2">
+        <v>12375</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" ht="16.4" spans="1:3">
+      <c r="A33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="2">
+        <v>12376</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2">
+        <v>12377</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="2">
+        <v>12378</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2">
+        <v>12379</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="2">
+        <v>12380</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" ht="16.4" spans="1:3">
+      <c r="A38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2">
+        <v>12381</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" ht="16.4" spans="1:3">
+      <c r="A39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="2">
+        <v>12382</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" ht="16.4" spans="1:3">
+      <c r="A40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="2">
+        <v>12383</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" ht="16.4" spans="1:3">
+      <c r="A41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="2">
+        <v>12384</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" ht="16.4" spans="1:3">
+      <c r="A42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="2">
+        <v>12385</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" ht="16.4" spans="1:3">
+      <c r="A43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="2">
+        <v>12386</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" ht="16.4" spans="1:3">
+      <c r="A44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="2">
+        <v>12387</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" ht="16.4" spans="1:3">
+      <c r="A45" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="2">
+        <v>12388</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" ht="16.4" spans="1:3">
+      <c r="A46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="2">
+        <v>12389</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" ht="16.4" spans="1:3">
+      <c r="A47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="2">
+        <v>12390</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" ht="16.4" spans="1:3">
+      <c r="A48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="2">
+        <v>12391</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" ht="16.4" spans="1:3">
+      <c r="A49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="2">
+        <v>12392</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="2">
+        <v>12393</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="2">
+        <v>12394</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="2">
+        <v>12395</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="2">
+        <v>12396</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" ht="16.4" spans="1:3">
+      <c r="A54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="2">
+        <v>12397</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" ht="16.4" spans="1:3">
+      <c r="A55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="2">
+        <v>12398</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" ht="16.4" spans="1:3">
+      <c r="A56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="2">
+        <v>12399</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" ht="16.4" spans="1:3">
+      <c r="A57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="2">
+        <v>12400</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" ht="16.4" spans="1:3">
+      <c r="A58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="2">
+        <v>12401</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" ht="16.4" spans="1:3">
+      <c r="A59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="2">
+        <v>12402</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" ht="16.4" spans="1:3">
+      <c r="A60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="2">
+        <v>12403</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" ht="16.4" spans="1:3">
+      <c r="A61" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="2">
+        <v>12404</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" ht="16.4" spans="1:3">
+      <c r="A62" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="2">
+        <v>12405</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" ht="16.4" spans="1:3">
+      <c r="A63" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" s="2">
+        <v>12406</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" ht="16.4" spans="1:3">
+      <c r="A64" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="2">
+        <v>12407</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" ht="16.4" spans="1:3">
+      <c r="A65" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="2">
+        <v>12408</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="2">
+        <v>12409</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="2">
+        <v>12410</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="2">
+        <v>12411</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="2">
+        <v>12412</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" ht="16.4" spans="1:3">
+      <c r="A70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="2">
+        <v>12413</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" ht="16.4" spans="1:3">
+      <c r="A71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="2">
+        <v>12414</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" ht="16.4" spans="1:3">
+      <c r="A72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="2">
+        <v>12415</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" ht="16.4" spans="1:3">
+      <c r="A73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="2">
+        <v>12416</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" ht="16.4" spans="1:3">
+      <c r="A74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="2">
+        <v>12417</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" ht="16.4" spans="1:3">
+      <c r="A75" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="2">
+        <v>12418</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" ht="16.4" spans="1:3">
+      <c r="A76" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="2">
+        <v>12419</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" ht="16.4" spans="1:3">
+      <c r="A77" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="2">
+        <v>12420</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" ht="16.4" spans="1:3">
+      <c r="A78" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" s="2">
+        <v>12421</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" ht="16.4" spans="1:3">
+      <c r="A79" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="2">
+        <v>12422</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" ht="16.4" spans="1:3">
+      <c r="A80" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="2">
+        <v>12423</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" ht="16.4" spans="1:3">
+      <c r="A81" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="2">
+        <v>12424</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="2">
+        <v>12425</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="2">
+        <v>12426</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="2">
+        <v>12427</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="2">
+        <v>12428</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" ht="16.4" spans="1:3">
+      <c r="A86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="2">
+        <v>12429</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" ht="16.4" spans="1:3">
+      <c r="A87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="2">
+        <v>12430</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" ht="16.4" spans="1:3">
+      <c r="A88" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="2">
+        <v>12431</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" ht="16.4" spans="1:3">
+      <c r="A89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="2">
+        <v>12432</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" ht="16.4" spans="1:3">
+      <c r="A90" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="2">
+        <v>12433</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" ht="16.4" spans="1:3">
+      <c r="A91" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" s="2">
+        <v>12434</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" ht="16.4" spans="1:3">
+      <c r="A92" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="2">
+        <v>12435</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" ht="16.4" spans="1:3">
+      <c r="A93" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" s="2">
+        <v>12436</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" ht="16.4" spans="1:3">
+      <c r="A94" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" s="2">
+        <v>12437</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" ht="16.4" spans="1:3">
+      <c r="A95" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" s="2">
+        <v>12438</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" ht="16.4" spans="1:3">
+      <c r="A96" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" s="2">
+        <v>12439</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" ht="16.4" spans="1:3">
+      <c r="A97" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B97" s="2">
+        <v>12440</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="2">
+        <v>12441</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="2">
+        <v>12442</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="2">
+        <v>12443</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="2">
+        <v>12444</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
